--- a/sample/sample1.xlsx
+++ b/sample/sample1.xlsx
@@ -688,9 +688,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -781,6 +780,36 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1002,36 +1031,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1046,19 +1045,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J8" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
   <autoFilter ref="A1:J8"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Unique Reference Number" dataDxfId="10"/>
-    <tableColumn id="2" name="Project Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Task" dataDxfId="8"/>
-    <tableColumn id="4" name="How we receive" dataDxfId="7"/>
-    <tableColumn id="5" name="JIRA ticket number" dataDxfId="6"/>
-    <tableColumn id="6" name="Priority" dataDxfId="5"/>
-    <tableColumn id="7" name="Recieved Date" dataDxfId="4"/>
-    <tableColumn id="8" name="Resolved Date" dataDxfId="3"/>
-    <tableColumn id="9" name="GTIN" dataDxfId="2"/>
-    <tableColumn id="10" name="Vendor ID" dataDxfId="1"/>
+    <tableColumn id="1" name="Unique Reference Number" dataDxfId="13"/>
+    <tableColumn id="2" name="Project Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Task" dataDxfId="11"/>
+    <tableColumn id="4" name="How we receive" dataDxfId="10"/>
+    <tableColumn id="5" name="JIRA ticket number" dataDxfId="9"/>
+    <tableColumn id="6" name="Priority" dataDxfId="8"/>
+    <tableColumn id="7" name="Recieved Date" dataDxfId="7"/>
+    <tableColumn id="8" name="Resolved Date" dataDxfId="6"/>
+    <tableColumn id="9" name="GTIN" dataDxfId="5"/>
+    <tableColumn id="10" name="Vendor ID" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1329,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,179 +1341,179 @@
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>43983</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4">
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
         <v>23233445455624</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>32456</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>43981</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="3">
         <v>23233445455624</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>32456</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>43985</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15">
+      <c r="H4" s="12"/>
+      <c r="I4" s="14">
         <v>12233324343344</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>234156</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
